--- a/app/Licenciatura_em_Geologia_Marinha.xlsx
+++ b/app/Licenciatura_em_Geologia_Marinha.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Nilsa Moises</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Maria Judite Nimale</t>
   </si>
   <si>
-    <t>Distrito de Montepuez</t>
-  </si>
-  <si>
     <t>021001678213F</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Cecilia Da Silva Fernando</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060101986724C</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t xml:space="preserve">Cremilda Carlos Mavie </t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090100509823I</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Gilda Rafael Timane</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090200581567B</t>
   </si>
   <si>
@@ -362,9 +347,6 @@
     <t>Maria Francisco</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041100566108S</t>
   </si>
   <si>
@@ -386,9 +368,6 @@
     <t>Dianora Namburete Nhachale</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>080904930134Q</t>
   </si>
   <si>
@@ -461,9 +440,6 @@
     <t>Minalda Filipe Ugembe</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080102613322J</t>
   </si>
   <si>
@@ -488,9 +464,6 @@
     <t>Admira Mahumane</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>081002743275A</t>
   </si>
   <si>
@@ -512,9 +485,6 @@
     <t>Angela Maria Lai Wa</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070100551913Q</t>
   </si>
   <si>
@@ -539,9 +509,6 @@
     <t>Alfa Manhica</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110302488553A</t>
   </si>
   <si>
@@ -584,9 +551,6 @@
     <t>ZÉlia Santos Chirindza</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110501599008N</t>
   </si>
   <si>
@@ -608,9 +572,6 @@
     <t xml:space="preserve">Ivete Mateus </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>11010099 7589B</t>
   </si>
   <si>
@@ -725,9 +686,6 @@
     <t>Albertina Benedito</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>040101372712B</t>
   </si>
   <si>
@@ -752,9 +710,6 @@
     <t>Filomena Armindo Cumbaue</t>
   </si>
   <si>
-    <t>Distrito de Maganja da Costa</t>
-  </si>
-  <si>
     <t>040101115193I</t>
   </si>
   <si>
@@ -800,9 +755,6 @@
     <t>Jacinta M. Amoda Chakanga</t>
   </si>
   <si>
-    <t>Distrito de Gondola</t>
-  </si>
-  <si>
     <t>060301515635S</t>
   </si>
   <si>
@@ -851,9 +803,6 @@
     <t>Elisa Gentilal</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102431317P</t>
   </si>
   <si>
@@ -876,9 +825,6 @@
   </si>
   <si>
     <t>AntÓnia Menezes Camba</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
   </si>
   <si>
     <t>070100862620J</t>
@@ -2195,7 +2141,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2211,7 +2157,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2227,7 +2173,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2243,7 +2189,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2259,7 +2205,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2274,9 +2220,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2284,7 +2228,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2295,7 +2239,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2304,7 +2248,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2316,7 +2260,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2324,7 +2268,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2420,7 +2364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2463,7 +2407,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2790,7 +2734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2806,7 +2750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2822,7 +2766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2838,7 +2782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2854,7 +2798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2869,9 +2813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2879,7 +2821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2890,7 +2832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2899,7 +2841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2911,7 +2853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2919,7 +2861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3015,7 +2957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3058,7 +3000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3385,7 +3327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3401,7 +3343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3417,7 +3359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3433,7 +3375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3449,7 +3391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3464,9 +3406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3474,7 +3414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3485,7 +3425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3494,7 +3434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3506,7 +3446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3514,7 +3454,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3610,7 +3550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3653,7 +3593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3980,7 +3920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3996,7 +3936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4012,7 +3952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4028,7 +3968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4044,7 +3984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4059,9 +3999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4069,7 +4007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4080,7 +4018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4089,7 +4027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4101,7 +4039,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4109,7 +4047,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4205,7 +4143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4248,7 +4186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4575,7 +4513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4591,7 +4529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4607,7 +4545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4623,7 +4561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4639,7 +4577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4654,9 +4592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4664,7 +4600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4675,7 +4611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4684,7 +4620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4696,7 +4632,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4704,7 +4640,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4800,7 +4736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4843,7 +4779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5170,7 +5106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5186,7 +5122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5202,7 +5138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5218,7 +5154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5234,7 +5170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5249,9 +5185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5259,7 +5193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5270,7 +5204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5279,7 +5213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5291,7 +5225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5299,7 +5233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5395,7 +5329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5438,7 +5372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5765,7 +5699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5781,7 +5715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5797,7 +5731,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5813,7 +5747,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5829,7 +5763,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5844,9 +5778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5854,7 +5786,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5865,7 +5797,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5874,7 +5806,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5886,7 +5818,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5894,7 +5826,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5990,7 +5922,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6033,7 +5965,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6360,7 +6292,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6376,7 +6308,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6392,7 +6324,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6408,7 +6340,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6424,7 +6356,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6439,9 +6371,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6449,7 +6379,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6460,7 +6390,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6469,7 +6399,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6481,7 +6411,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6489,7 +6419,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6585,7 +6515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6628,7 +6558,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6955,7 +6885,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6971,7 +6901,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6987,7 +6917,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7003,7 +6933,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7019,7 +6949,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7034,9 +6964,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7044,7 +6972,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7055,7 +6983,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7064,7 +6992,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7076,7 +7004,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7084,7 +7012,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7180,7 +7108,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7223,7 +7151,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7550,7 +7478,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7566,7 +7494,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7582,7 +7510,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7598,7 +7526,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7614,7 +7542,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7629,9 +7557,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7639,7 +7565,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7650,7 +7576,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7659,7 +7585,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7671,7 +7597,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7679,7 +7605,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7775,7 +7701,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7818,7 +7744,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8224,9 +8150,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8234,7 +8158,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8245,7 +8169,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8254,7 +8178,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8266,7 +8190,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8274,7 +8198,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8370,7 +8294,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8413,7 +8337,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8740,7 +8664,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8756,7 +8680,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8772,7 +8696,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8788,7 +8712,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8804,7 +8728,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8819,9 +8743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8829,7 +8751,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8840,7 +8762,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8849,7 +8771,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8861,7 +8783,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8869,7 +8791,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8965,7 +8887,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9008,7 +8930,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9335,7 +9257,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9351,7 +9273,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9367,7 +9289,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9383,7 +9305,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9399,7 +9321,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9414,9 +9336,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9424,7 +9344,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9435,7 +9355,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9444,7 +9364,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9456,7 +9376,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9464,7 +9384,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9560,7 +9480,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9603,7 +9523,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9930,7 +9850,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9946,7 +9866,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9962,7 +9882,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9978,7 +9898,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9994,7 +9914,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10009,9 +9929,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10019,7 +9937,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10030,7 +9948,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10039,7 +9957,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10051,7 +9969,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10059,7 +9977,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10155,7 +10073,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10198,7 +10116,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10525,7 +10443,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10541,7 +10459,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10557,7 +10475,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10573,7 +10491,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10589,7 +10507,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10604,9 +10522,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10614,7 +10530,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10625,7 +10541,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10634,7 +10550,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10646,7 +10562,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10654,7 +10570,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10750,7 +10666,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10793,7 +10709,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11120,7 +11036,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11136,7 +11052,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11152,7 +11068,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11168,7 +11084,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11184,7 +11100,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11199,9 +11115,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11209,7 +11123,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11220,7 +11134,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11229,7 +11143,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11241,7 +11155,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11249,7 +11163,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11345,7 +11259,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11388,7 +11302,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11715,7 +11629,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11731,7 +11645,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11747,7 +11661,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11763,7 +11677,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11779,7 +11693,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11794,9 +11708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11804,7 +11716,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11815,7 +11727,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11824,7 +11736,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11836,7 +11748,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11844,7 +11756,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11940,7 +11852,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11983,7 +11895,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12310,7 +12222,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12326,7 +12238,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12342,7 +12254,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12358,7 +12270,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12374,7 +12286,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12389,9 +12301,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12399,7 +12309,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12410,7 +12320,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12419,7 +12329,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12431,7 +12341,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12439,7 +12349,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12535,7 +12445,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12578,7 +12488,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12905,7 +12815,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12921,7 +12831,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12937,7 +12847,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12953,7 +12863,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12969,7 +12879,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12984,9 +12894,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12994,7 +12902,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13005,7 +12913,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13014,7 +12922,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13026,7 +12934,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13034,7 +12942,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13130,7 +13038,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13173,7 +13081,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13500,7 +13408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13516,7 +13424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13532,7 +13440,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13548,7 +13456,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13564,7 +13472,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13579,9 +13487,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>267</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13589,7 +13495,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13600,7 +13506,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13609,7 +13515,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13621,7 +13527,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13629,7 +13535,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13725,7 +13631,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13768,7 +13674,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14095,7 +14001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14111,7 +14017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14127,7 +14033,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14143,7 +14049,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14159,7 +14065,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14174,9 +14080,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14184,7 +14088,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14195,7 +14099,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14204,7 +14108,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14216,7 +14120,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14224,7 +14128,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14320,7 +14224,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14363,7 +14267,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14690,7 +14594,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14706,7 +14610,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14722,7 +14626,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14738,7 +14642,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14754,7 +14658,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14769,9 +14673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14779,7 +14681,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14790,7 +14692,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14799,7 +14701,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14811,7 +14713,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14819,7 +14721,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14915,7 +14817,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14958,7 +14860,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15285,7 +15187,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15301,7 +15203,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15317,7 +15219,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15333,7 +15235,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15349,7 +15251,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15364,9 +15266,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15374,7 +15274,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15385,7 +15285,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15394,7 +15294,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15406,7 +15306,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15414,7 +15314,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15510,7 +15410,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15553,7 +15453,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15880,7 +15780,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15896,7 +15796,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15912,7 +15812,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15928,7 +15828,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15944,7 +15844,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15959,9 +15859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15969,7 +15867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15980,7 +15878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15989,7 +15887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16001,7 +15899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16009,7 +15907,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16105,7 +16003,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16148,7 +16046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16531,7 +16429,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16547,7 +16445,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16563,7 +16461,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16579,7 +16477,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16595,7 +16493,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16610,9 +16508,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16620,7 +16516,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16631,7 +16527,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16640,7 +16536,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16652,7 +16548,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16660,7 +16556,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16756,7 +16652,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16799,7 +16695,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17126,7 +17022,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17142,7 +17038,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17158,7 +17054,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17174,7 +17070,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17190,7 +17086,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17205,9 +17101,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17215,7 +17109,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17226,7 +17120,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17235,7 +17129,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17247,7 +17141,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17255,7 +17149,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17351,7 +17245,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17394,7 +17288,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17721,7 +17615,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17737,7 +17631,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17753,7 +17647,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17769,7 +17663,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17785,7 +17679,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17800,9 +17694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17810,7 +17702,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17821,7 +17713,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17830,7 +17722,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17842,7 +17734,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17850,7 +17742,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17946,7 +17838,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17989,7 +17881,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18316,7 +18208,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18332,7 +18224,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18348,7 +18240,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18364,7 +18256,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18380,7 +18272,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18395,9 +18287,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18405,7 +18295,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18416,7 +18306,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18425,7 +18315,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18437,7 +18327,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18445,7 +18335,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18541,7 +18431,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18584,7 +18474,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18911,7 +18801,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18927,7 +18817,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18943,7 +18833,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18959,7 +18849,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18975,7 +18865,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18990,9 +18880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19000,7 +18888,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19011,7 +18899,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19020,7 +18908,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19032,7 +18920,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19040,7 +18928,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19136,7 +19024,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19179,7 +19067,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19506,7 +19394,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19522,7 +19410,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19538,7 +19426,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19554,7 +19442,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19570,7 +19458,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19585,9 +19473,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19595,7 +19481,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19606,7 +19492,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19615,7 +19501,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19627,7 +19513,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19635,7 +19521,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19731,7 +19617,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19774,7 +19660,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
